--- a/NEW HR/FERMA, RAYMOND.xlsx
+++ b/NEW HR/FERMA, RAYMOND.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>2/10-12/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>4/27,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1274,9 +1280,9 @@
   <dimension ref="A2:K120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A57" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
+      <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1354,9 @@
         <v>12</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="54"/>
+      <c r="F4" s="54" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="54"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
@@ -1446,7 +1454,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>53.5</v>
+        <v>52.75</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1456,7 +1464,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.5</v>
+        <v>63.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2916,15 +2924,19 @@
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="42"/>
+      <c r="A79" s="42">
+        <v>44986</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="41"/>
       <c r="E79" s="10"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="41"/>
       <c r="I79" s="10"/>
@@ -2932,10 +2944,16 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="42"/>
-      <c r="B80" s="21"/>
+      <c r="A80" s="42">
+        <v>45017</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C80" s="14"/>
-      <c r="D80" s="41"/>
+      <c r="D80" s="41">
+        <v>2</v>
+      </c>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
       <c r="G80" s="14" t="str">
@@ -2945,7 +2963,9 @@
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
       <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="K80" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="42"/>

--- a/NEW HR/FERMA, RAYMOND.xlsx
+++ b/NEW HR/FERMA, RAYMOND.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>4/27,30/2023</t>
+  </si>
+  <si>
+    <t>6/11-12/2023</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1285,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1457,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.75</v>
+        <v>55.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1464,7 +1467,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>63.75</v>
+        <v>64.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2950,15 +2953,17 @@
       <c r="B80" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="41">
         <v>2</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="41"/>
       <c r="I80" s="10"/>
@@ -2968,15 +2973,19 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="42"/>
+      <c r="A81" s="42">
+        <v>45047</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="41"/>
       <c r="E81" s="10"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="41"/>
       <c r="I81" s="10"/>
@@ -2984,8 +2993,12 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="42"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="42">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
@@ -2994,10 +3007,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="41"/>
+      <c r="H82" s="41">
+        <v>2</v>
+      </c>
       <c r="I82" s="10"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="42"/>

--- a/NEW HR/FERMA, RAYMOND.xlsx
+++ b/NEW HR/FERMA, RAYMOND.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1285,7 +1285,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
+      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1457,7 +1457,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>55.25</v>
+        <v>59</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1467,7 +1467,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>64.25</v>
+        <v>67</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -2999,13 +2999,15 @@
       <c r="B82" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="41"/>
       <c r="E82" s="10"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="41">
         <v>2</v>
@@ -3017,15 +3019,19 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
+      <c r="A83" s="42">
+        <v>45108</v>
+      </c>
       <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="41"/>
       <c r="E83" s="10"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="41"/>
       <c r="I83" s="10"/>
@@ -3033,15 +3039,19 @@
       <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
+      <c r="A84" s="42">
+        <v>45139</v>
+      </c>
       <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="41"/>
       <c r="E84" s="10"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="41"/>
       <c r="I84" s="10"/>
@@ -3049,8 +3059,12 @@
       <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="21"/>
+      <c r="A85" s="42">
+        <v>45170</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C85" s="14"/>
       <c r="D85" s="41"/>
       <c r="E85" s="10"/>
@@ -3059,13 +3073,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H85" s="41"/>
+      <c r="H85" s="41">
+        <v>1</v>
+      </c>
       <c r="I85" s="10"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="51">
+        <v>45184</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
+      <c r="A86" s="42">
+        <v>45200</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="41"/>
@@ -3081,7 +3101,9 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
+      <c r="A87" s="42">
+        <v>45231</v>
+      </c>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
       <c r="D87" s="41"/>
